--- a/change_log.xlsx
+++ b/change_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\xapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD98C69-383A-4439-ACFC-8CD6F73C23EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A140EE-A250-4AD4-BC53-A199FD99FDB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{440BF4C2-2E4D-4BB5-BF4C-56D8F2ED7EB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="5" activeTab="10" xr2:uid="{440BF4C2-2E4D-4BB5-BF4C-56D8F2ED7EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Logged in" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="75">
   <si>
     <t>COMMON IDENTIFIER</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>context.extensions.http://xapi.jisc.ac.uk/borrowing_site [0..1]</t>
+  </si>
+  <si>
+    <t>http://xapi.jisc.ac.uk/sequenceNumber</t>
   </si>
 </sst>
 </file>
@@ -299,14 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -316,6 +311,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -347,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,33 +367,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -706,7 +721,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,52 +737,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1061,71 +1076,71 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912BF175-3DC9-4E03-8664-C223ABA6C835}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:G33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1200,200 +1215,194 @@
       <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1412,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3279DDE8-B87A-4D57-BEFC-B206006DC7EB}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,53 +1437,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1925,53 +1934,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2281,73 +2290,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C50BAA-F785-402D-83DC-38ABF3492B4F}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2674,68 +2683,68 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3041,68 +3050,68 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
     <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3407,68 +3416,68 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD30"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3850,7 +3859,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>45</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3885,14 +3894,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547D005C-487D-4BBF-A8D2-980ED86E792E}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
@@ -3901,54 +3910,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4247,28 +4256,28 @@
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="G31" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
   </sheetData>
@@ -4288,14 +4297,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9D138C-4DEB-40BB-872C-A5237AC486E0}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
@@ -4304,53 +4313,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4693,13 +4702,13 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
@@ -4708,53 +4717,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5209,14 +5218,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7B8078-E597-44D3-80D6-AC7E843621EF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" customWidth="1"/>
@@ -5225,53 +5234,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
